--- a/uploads/balance2019.xlsx
+++ b/uploads/balance2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levzo\Desktop\web_balance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levzo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2148,7 +2148,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1"/>
+      <selection activeCell="L39" sqref="C5:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2278,7 +2278,9 @@
         <f>Уголь_пр!B3</f>
         <v>224.23999999999998</v>
       </c>
-      <c r="D5" s="70"/>
+      <c r="D5" s="70">
+        <v>0</v>
+      </c>
       <c r="E5" s="70">
         <f>Нефтепродукты!B3</f>
         <v>0</v>
@@ -2295,9 +2297,15 @@
         <f>Электро!B4</f>
         <v>234.35</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="92"/>
+      <c r="I5" s="70">
+        <v>0</v>
+      </c>
+      <c r="J5" s="70">
+        <v>0</v>
+      </c>
+      <c r="K5" s="92">
+        <v>0</v>
+      </c>
       <c r="L5" s="98">
         <f t="shared" ref="L5:L15" si="0">SUM(C5:K5)</f>
         <v>522.66</v>
@@ -2316,7 +2324,9 @@
         <f>Уголь_пр!B4</f>
         <v>599.37</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="73">
+        <v>0</v>
+      </c>
       <c r="E6" s="73">
         <f>Нефтепродукты!B4</f>
         <v>3100.36</v>
@@ -2329,8 +2339,12 @@
         <f>ПТТ!B4</f>
         <v>0</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
+      <c r="H6" s="73">
+        <v>0</v>
+      </c>
+      <c r="I6" s="73">
+        <v>0</v>
+      </c>
       <c r="J6" s="73">
         <f>Электро!B5</f>
         <v>6465.39</v>
@@ -2357,7 +2371,9 @@
         <f>Уголь_пр!B5</f>
         <v>0</v>
       </c>
-      <c r="D7" s="73"/>
+      <c r="D7" s="73">
+        <v>0</v>
+      </c>
       <c r="E7" s="73">
         <f>Нефтепродукты!B5</f>
         <v>0</v>
@@ -2370,8 +2386,12 @@
         <f>ПТТ!B5</f>
         <v>0</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
+      <c r="H7" s="73">
+        <v>0</v>
+      </c>
+      <c r="I7" s="73">
+        <v>0</v>
+      </c>
       <c r="J7" s="73">
         <f>-Электро!B6</f>
         <v>-2182.2800000000002</v>
@@ -2397,7 +2417,9 @@
         <f>Уголь_пр!B6</f>
         <v>15.18</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="73">
+        <v>0</v>
+      </c>
       <c r="E8" s="73">
         <f>Нефтепродукты!B6</f>
         <v>-49.760000000000005</v>
@@ -2410,8 +2432,12 @@
         <f>ПТТ!B6</f>
         <v>-8.9999999999999969E-2</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
+      <c r="H8" s="73">
+        <v>0</v>
+      </c>
+      <c r="I8" s="73">
+        <v>0</v>
+      </c>
       <c r="J8" s="73">
         <f>Электро!B7</f>
         <v>0</v>
@@ -2436,7 +2462,9 @@
         <f>Уголь_пр!B7</f>
         <v>838.79</v>
       </c>
-      <c r="D9" s="76"/>
+      <c r="D9" s="76">
+        <v>0</v>
+      </c>
       <c r="E9" s="76">
         <f>Нефтепродукты!B7</f>
         <v>3050.6</v>
@@ -2453,7 +2481,9 @@
         <f>H5</f>
         <v>234.35</v>
       </c>
-      <c r="I9" s="76"/>
+      <c r="I9" s="76">
+        <v>0</v>
+      </c>
       <c r="J9" s="76">
         <f>SUM(J5:J8)</f>
         <v>4283.1100000000006</v>
@@ -2478,7 +2508,9 @@
         <f>Уголь_пр!B8</f>
         <v>0.31999999999992212</v>
       </c>
-      <c r="D10" s="73"/>
+      <c r="D10" s="73">
+        <v>0</v>
+      </c>
       <c r="E10" s="73">
         <f>Нефтепродукты!B8</f>
         <v>0.20000000000001172</v>
@@ -2495,7 +2527,9 @@
         <f>H22-H11-H9</f>
         <v>0</v>
       </c>
-      <c r="I10" s="73"/>
+      <c r="I10" s="73">
+        <v>0</v>
+      </c>
       <c r="J10" s="73">
         <f>Электро!B9</f>
         <v>225.85000000000036</v>
@@ -2523,7 +2557,9 @@
         <f>-Уголь_пр!B9</f>
         <v>-34.269999999999996</v>
       </c>
-      <c r="D11" s="80"/>
+      <c r="D11" s="80">
+        <v>0</v>
+      </c>
       <c r="E11" s="80">
         <f>-Нефтепродукты!B10</f>
         <v>-4.82</v>
@@ -2540,12 +2576,16 @@
         <f>-H9</f>
         <v>-234.35</v>
       </c>
-      <c r="I11" s="80"/>
+      <c r="I11" s="80">
+        <v>0</v>
+      </c>
       <c r="J11" s="80">
         <f>Электро!B3</f>
         <v>2493.7399999999998</v>
       </c>
-      <c r="K11" s="95"/>
+      <c r="K11" s="95">
+        <v>0</v>
+      </c>
       <c r="L11" s="100">
         <f>SUM(C11:K11)</f>
         <v>-2358.8900000000003</v>
@@ -2614,8 +2654,12 @@
         <f>-Уголь_пр!B11</f>
         <v>-0.38</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
+      <c r="D13" s="73">
+        <v>0</v>
+      </c>
+      <c r="E13" s="73">
+        <v>0</v>
+      </c>
       <c r="F13" s="73">
         <f>-'Пр-й газ'!B12</f>
         <v>-2527.42</v>
@@ -2624,8 +2668,12 @@
         <f>-ПТТ!B12</f>
         <v>0</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
+      <c r="H13" s="73">
+        <v>0</v>
+      </c>
+      <c r="I13" s="73">
+        <v>0</v>
+      </c>
       <c r="J13" s="73">
         <f>-Электро!B11</f>
         <v>-6.75</v>
@@ -2652,7 +2700,9 @@
         <f>-Уголь_пр!B12</f>
         <v>-181.95999999999998</v>
       </c>
-      <c r="D14" s="73"/>
+      <c r="D14" s="73">
+        <v>0</v>
+      </c>
       <c r="E14" s="73">
         <f>-Нефтепродукты!B13</f>
         <v>-264.00000000000006</v>
@@ -2665,8 +2715,12 @@
         <f>-ПТТ!B13</f>
         <v>-63.98</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
+      <c r="H14" s="73">
+        <v>0</v>
+      </c>
+      <c r="I14" s="73">
+        <v>0</v>
+      </c>
       <c r="J14" s="73">
         <f>-Электро!B12</f>
         <v>-83.38</v>
@@ -2691,7 +2745,9 @@
         <f>-(Уголь_пр!B13+Уголь_пр!B14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="73"/>
+      <c r="D15" s="73">
+        <v>0</v>
+      </c>
       <c r="E15" s="73">
         <f>-(Нефтепродукты!B14+Нефтепродукты!B15)</f>
         <v>0</v>
@@ -2704,8 +2760,12 @@
         <f>-(ПТТ!B14+ПТТ!B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
+      <c r="H15" s="73">
+        <v>0</v>
+      </c>
+      <c r="I15" s="73">
+        <v>0</v>
+      </c>
       <c r="J15" s="73">
         <f>-(Электро!B13+Электро!B14)</f>
         <v>0</v>
@@ -2779,7 +2839,9 @@
         <f>-Уголь_пр!B15</f>
         <v>0</v>
       </c>
-      <c r="D17" s="73"/>
+      <c r="D17" s="73">
+        <v>0</v>
+      </c>
       <c r="E17" s="73">
         <f>-Нефтепродукты!B16</f>
         <v>0</v>
@@ -2792,8 +2854,12 @@
         <f>ПТТ!B16</f>
         <v>0</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
+      <c r="H17" s="73">
+        <v>0</v>
+      </c>
+      <c r="I17" s="73">
+        <v>0</v>
+      </c>
       <c r="J17" s="73">
         <f>-Электро!B15</f>
         <v>0</v>
@@ -2818,7 +2884,9 @@
         <f>-Уголь_пр!B16</f>
         <v>0</v>
       </c>
-      <c r="D18" s="73"/>
+      <c r="D18" s="73">
+        <v>0</v>
+      </c>
       <c r="E18" s="73">
         <f>-Нефтепродукты!B17</f>
         <v>0</v>
@@ -2831,8 +2899,12 @@
         <f>ПТТ!B17</f>
         <v>0</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
+      <c r="H18" s="73">
+        <v>0</v>
+      </c>
+      <c r="I18" s="73">
+        <v>0</v>
+      </c>
       <c r="J18" s="73">
         <f>-Электро!B16</f>
         <v>-7.07</v>
@@ -2857,7 +2929,9 @@
         <f>-Уголь_пр!B17</f>
         <v>-557.61</v>
       </c>
-      <c r="D19" s="73"/>
+      <c r="D19" s="73">
+        <v>0</v>
+      </c>
       <c r="E19" s="73">
         <f>-Нефтепродукты!B18</f>
         <v>0</v>
@@ -2870,8 +2944,12 @@
         <f>ПТТ!B18</f>
         <v>0</v>
       </c>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
+      <c r="H19" s="73">
+        <v>0</v>
+      </c>
+      <c r="I19" s="73">
+        <v>0</v>
+      </c>
       <c r="J19" s="73">
         <f>-Электро!B17</f>
         <v>0</v>
@@ -2896,7 +2974,9 @@
         <f>-Уголь_пр!B18</f>
         <v>0</v>
       </c>
-      <c r="D20" s="80"/>
+      <c r="D20" s="80">
+        <v>0</v>
+      </c>
       <c r="E20" s="80">
         <f>-Нефтепродукты!B19</f>
         <v>0</v>
@@ -2909,8 +2989,12 @@
         <f>ПТТ!B19</f>
         <v>0</v>
       </c>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
+      <c r="H20" s="80">
+        <v>0</v>
+      </c>
+      <c r="I20" s="80">
+        <v>0</v>
+      </c>
       <c r="J20" s="80">
         <f>-Электро!B18</f>
         <v>-462.86</v>
@@ -2935,7 +3019,9 @@
         <f>-Уголь_пр!B19</f>
         <v>0</v>
       </c>
-      <c r="D21" s="80"/>
+      <c r="D21" s="80">
+        <v>0</v>
+      </c>
       <c r="E21" s="80">
         <f>-Нефтепродукты!B20</f>
         <v>0</v>
@@ -2948,8 +3034,12 @@
         <f>ПТТ!B20</f>
         <v>0</v>
       </c>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
+      <c r="H21" s="80">
+        <v>0</v>
+      </c>
+      <c r="I21" s="80">
+        <v>0</v>
+      </c>
       <c r="J21" s="80">
         <f>-Электро!B19</f>
         <v>-890.39</v>
@@ -2974,7 +3064,9 @@
         <f>Уголь_пр!B20</f>
         <v>64.25</v>
       </c>
-      <c r="D22" s="76"/>
+      <c r="D22" s="76">
+        <v>0</v>
+      </c>
       <c r="E22" s="76">
         <f>Нефтепродукты!B21</f>
         <v>2781.27</v>
@@ -2987,8 +3079,12 @@
         <f>ПТТ!B21</f>
         <v>0</v>
       </c>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
+      <c r="H22" s="76">
+        <v>0</v>
+      </c>
+      <c r="I22" s="76">
+        <v>0</v>
+      </c>
       <c r="J22" s="76">
         <f>Электро!B20</f>
         <v>5100.55</v>
@@ -3013,7 +3109,9 @@
         <f>Уголь_пр!B21</f>
         <v>0</v>
       </c>
-      <c r="D23" s="80"/>
+      <c r="D23" s="80">
+        <v>0</v>
+      </c>
       <c r="E23" s="80">
         <f>Нефтепродукты!B22</f>
         <v>60.230000000000004</v>
@@ -3026,8 +3124,12 @@
         <f>ПТТ!B22</f>
         <v>0</v>
       </c>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
+      <c r="H23" s="80">
+        <v>0</v>
+      </c>
+      <c r="I23" s="80">
+        <v>0</v>
+      </c>
       <c r="J23" s="80">
         <f>Электро!B21</f>
         <v>169.81</v>
@@ -3052,7 +3154,9 @@
         <f>Уголь_пр!B22</f>
         <v>0.23</v>
       </c>
-      <c r="D24" s="80"/>
+      <c r="D24" s="80">
+        <v>0</v>
+      </c>
       <c r="E24" s="80">
         <f>Нефтепродукты!B23</f>
         <v>651.93999999999994</v>
@@ -3065,8 +3169,12 @@
         <f>ПТТ!B25</f>
         <v>0</v>
       </c>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
+      <c r="H24" s="80">
+        <v>0</v>
+      </c>
+      <c r="I24" s="80">
+        <v>0</v>
+      </c>
       <c r="J24" s="80">
         <f>Электро!B22</f>
         <v>1623.28</v>
@@ -3089,7 +3197,9 @@
         <f>Уголь_пр!B23</f>
         <v>0</v>
       </c>
-      <c r="D25" s="80"/>
+      <c r="D25" s="80">
+        <v>0</v>
+      </c>
       <c r="E25" s="80">
         <f>Нефтепродукты!B24</f>
         <v>25.71</v>
@@ -3098,9 +3208,15 @@
         <f>'Пр-й газ'!B25</f>
         <v>0.45</v>
       </c>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
+      <c r="G25" s="80">
+        <v>0</v>
+      </c>
+      <c r="H25" s="80">
+        <v>0</v>
+      </c>
+      <c r="I25" s="80">
+        <v>0</v>
+      </c>
       <c r="J25" s="80">
         <f>Электро!B23</f>
         <v>18.25</v>
@@ -3123,7 +3239,9 @@
         <f>Уголь_пр!B24</f>
         <v>0.23</v>
       </c>
-      <c r="D26" s="80"/>
+      <c r="D26" s="80">
+        <v>0</v>
+      </c>
       <c r="E26" s="80">
         <f>Нефтепродукты!B25</f>
         <v>524.41999999999996</v>
@@ -3132,9 +3250,15 @@
         <f>'Пр-й газ'!B26</f>
         <v>70.010000000000005</v>
       </c>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
+      <c r="G26" s="80">
+        <v>0</v>
+      </c>
+      <c r="H26" s="80">
+        <v>0</v>
+      </c>
+      <c r="I26" s="80">
+        <v>0</v>
+      </c>
       <c r="J26" s="80">
         <f>Электро!B24</f>
         <v>1334.9</v>
@@ -3157,7 +3281,9 @@
         <f>Уголь_пр!B25</f>
         <v>0</v>
       </c>
-      <c r="D27" s="80"/>
+      <c r="D27" s="80">
+        <v>0</v>
+      </c>
       <c r="E27" s="80">
         <f>Нефтепродукты!B26</f>
         <v>57.19</v>
@@ -3166,9 +3292,15 @@
         <f>'Пр-й газ'!B27</f>
         <v>12.26</v>
       </c>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
+      <c r="G27" s="80">
+        <v>0</v>
+      </c>
+      <c r="H27" s="80">
+        <v>0</v>
+      </c>
+      <c r="I27" s="80">
+        <v>0</v>
+      </c>
       <c r="J27" s="80">
         <f>Электро!B25</f>
         <v>36.340000000000003</v>
@@ -3193,7 +3325,9 @@
         <f>Уголь_пр!B26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="80"/>
+      <c r="D28" s="80">
+        <v>0</v>
+      </c>
       <c r="E28" s="80">
         <f>Нефтепродукты!B27</f>
         <v>44.63</v>
@@ -3206,8 +3340,12 @@
         <f>ПТТ!B27</f>
         <v>0</v>
       </c>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
+      <c r="H28" s="80">
+        <v>0</v>
+      </c>
+      <c r="I28" s="80">
+        <v>0</v>
+      </c>
       <c r="J28" s="80">
         <f>Электро!B26</f>
         <v>233.79</v>
@@ -3230,7 +3368,9 @@
         <f>Уголь_пр!B27</f>
         <v>0</v>
       </c>
-      <c r="D29" s="80"/>
+      <c r="D29" s="80">
+        <v>0</v>
+      </c>
       <c r="E29" s="80">
         <f>Нефтепродукты!B28</f>
         <v>0</v>
@@ -3239,9 +3379,15 @@
         <f>'Пр-й газ'!B29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
+      <c r="G29" s="80">
+        <v>0</v>
+      </c>
+      <c r="H29" s="80">
+        <v>0</v>
+      </c>
+      <c r="I29" s="80">
+        <v>0</v>
+      </c>
       <c r="J29" s="80">
         <f>Электро!B27</f>
         <v>0</v>
@@ -3266,7 +3412,9 @@
         <f>Уголь_пр!B28</f>
         <v>0</v>
       </c>
-      <c r="D30" s="80"/>
+      <c r="D30" s="80">
+        <v>0</v>
+      </c>
       <c r="E30" s="80">
         <f>Нефтепродукты!B29</f>
         <v>280.61</v>
@@ -3279,8 +3427,12 @@
         <f>ПТТ!B29</f>
         <v>0</v>
       </c>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
+      <c r="H30" s="80">
+        <v>0</v>
+      </c>
+      <c r="I30" s="80">
+        <v>0</v>
+      </c>
       <c r="J30" s="80">
         <f>Электро!B28</f>
         <v>159.55000000000001</v>
@@ -3305,7 +3457,9 @@
         <f>Уголь_пр!B29</f>
         <v>0</v>
       </c>
-      <c r="D31" s="80"/>
+      <c r="D31" s="80">
+        <v>0</v>
+      </c>
       <c r="E31" s="80">
         <f>Нефтепродукты!B30</f>
         <v>662.91</v>
@@ -3318,8 +3472,12 @@
         <f>ПТТ!B30</f>
         <v>0</v>
       </c>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
+      <c r="H31" s="80">
+        <v>0</v>
+      </c>
+      <c r="I31" s="80">
+        <v>0</v>
+      </c>
       <c r="J31" s="80">
         <f>Электро!B29</f>
         <v>508.25</v>
@@ -3344,7 +3502,9 @@
         <f>Уголь_пр!B30</f>
         <v>0</v>
       </c>
-      <c r="D32" s="73"/>
+      <c r="D32" s="73">
+        <v>0</v>
+      </c>
       <c r="E32" s="73">
         <f>Нефтепродукты!B31</f>
         <v>17.439999999999998</v>
@@ -3357,8 +3517,12 @@
         <f>ПТТ!B31</f>
         <v>0</v>
       </c>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
+      <c r="H32" s="73">
+        <v>0</v>
+      </c>
+      <c r="I32" s="73">
+        <v>0</v>
+      </c>
       <c r="J32" s="73">
         <f>Электро!B30</f>
         <v>340.32</v>
@@ -3383,7 +3547,9 @@
         <f>Уголь_пр!B31</f>
         <v>0</v>
       </c>
-      <c r="D33" s="73"/>
+      <c r="D33" s="73">
+        <v>0</v>
+      </c>
       <c r="E33" s="73">
         <f>Нефтепродукты!B32</f>
         <v>2.98</v>
@@ -3396,8 +3562,12 @@
         <f>ПТТ!B32</f>
         <v>0</v>
       </c>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
+      <c r="H33" s="73">
+        <v>0</v>
+      </c>
+      <c r="I33" s="73">
+        <v>0</v>
+      </c>
       <c r="J33" s="73">
         <f>Электро!B31</f>
         <v>11.23</v>
@@ -3422,7 +3592,9 @@
         <f>Уголь_пр!B32</f>
         <v>0</v>
       </c>
-      <c r="D34" s="73"/>
+      <c r="D34" s="73">
+        <v>0</v>
+      </c>
       <c r="E34" s="73">
         <f>Нефтепродукты!B33</f>
         <v>364.71000000000004</v>
@@ -3435,8 +3607,12 @@
         <f>ПТТ!B33</f>
         <v>0</v>
       </c>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
+      <c r="H34" s="73">
+        <v>0</v>
+      </c>
+      <c r="I34" s="73">
+        <v>0</v>
+      </c>
       <c r="J34" s="73">
         <f>Электро!B32</f>
         <v>5.94</v>
@@ -3461,7 +3637,9 @@
         <f>Уголь_пр!B33</f>
         <v>0</v>
       </c>
-      <c r="D35" s="73"/>
+      <c r="D35" s="73">
+        <v>0</v>
+      </c>
       <c r="E35" s="73">
         <f>Нефтепродукты!B34</f>
         <v>272.16000000000003</v>
@@ -3474,8 +3652,12 @@
         <f>ПТТ!B34</f>
         <v>0</v>
       </c>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
+      <c r="H35" s="73">
+        <v>0</v>
+      </c>
+      <c r="I35" s="73">
+        <v>0</v>
+      </c>
       <c r="J35" s="73">
         <f>Электро!B33</f>
         <v>49.98</v>
@@ -3500,7 +3682,9 @@
         <f>Уголь_пр!B34</f>
         <v>0</v>
       </c>
-      <c r="D36" s="80"/>
+      <c r="D36" s="80">
+        <v>0</v>
+      </c>
       <c r="E36" s="80">
         <f>Нефтепродукты!B35</f>
         <v>536.37</v>
@@ -3513,8 +3697,12 @@
         <f>ПТТ!B35</f>
         <v>0</v>
       </c>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
+      <c r="H36" s="80">
+        <v>0</v>
+      </c>
+      <c r="I36" s="80">
+        <v>0</v>
+      </c>
       <c r="J36" s="80">
         <f>Электро!B34</f>
         <v>845.04</v>
@@ -3539,7 +3727,9 @@
         <f>Уголь_пр!B35</f>
         <v>0</v>
       </c>
-      <c r="D37" s="80"/>
+      <c r="D37" s="80">
+        <v>0</v>
+      </c>
       <c r="E37" s="80">
         <f>Нефтепродукты!B36</f>
         <v>21.9</v>
@@ -3552,8 +3742,12 @@
         <f>ПТТ!B36</f>
         <v>0</v>
       </c>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
+      <c r="H37" s="80">
+        <v>0</v>
+      </c>
+      <c r="I37" s="80">
+        <v>0</v>
+      </c>
       <c r="J37" s="80">
         <f>Электро!B35</f>
         <v>1260.08</v>
@@ -3578,7 +3772,9 @@
         <f>Уголь_пр!B36</f>
         <v>0.18</v>
       </c>
-      <c r="D38" s="80"/>
+      <c r="D38" s="80">
+        <v>0</v>
+      </c>
       <c r="E38" s="80">
         <f>Нефтепродукты!B37</f>
         <v>34.1</v>
@@ -3591,8 +3787,12 @@
         <f>ПТТ!B37</f>
         <v>0</v>
       </c>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
+      <c r="H38" s="80">
+        <v>0</v>
+      </c>
+      <c r="I38" s="80">
+        <v>0</v>
+      </c>
       <c r="J38" s="80">
         <f>Электро!B36</f>
         <v>0</v>
@@ -3617,7 +3817,9 @@
         <f>Уголь_пр!B37</f>
         <v>63.84</v>
       </c>
-      <c r="D39" s="89"/>
+      <c r="D39" s="89">
+        <v>0</v>
+      </c>
       <c r="E39" s="89">
         <f>Нефтепродукты!B38</f>
         <v>533.21</v>
@@ -3630,8 +3832,12 @@
         <f>ПТТ!B38</f>
         <v>0</v>
       </c>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
+      <c r="H39" s="89">
+        <v>0</v>
+      </c>
+      <c r="I39" s="89">
+        <v>0</v>
+      </c>
       <c r="J39" s="89">
         <f>Электро!B37</f>
         <v>534.54</v>
